--- a/UseCase -Scenarij-/UseCase scenarij (Update).xlsx
+++ b/UseCase -Scenarij-/UseCase scenarij (Update).xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18021"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="5_{C239588C-34F1-464B-823A-27B4CBF6DB0A}" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maida\Kasperski\UseCase -Scenarij-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>SCENARIJ</t>
-  </si>
-  <si>
     <t>Nadogradnja sistema</t>
   </si>
   <si>
-    <t>NAZIV</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
-    <t>OPIS</t>
-  </si>
-  <si>
     <t>Unos novih lokacija sa njihovim opisima i nadogradnja sistema</t>
   </si>
   <si>
-    <t>AKTERI</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
@@ -51,23 +43,26 @@
   </si>
   <si>
     <t>1.Unos novih lokacija i nadogradnja sistema</t>
+  </si>
+  <si>
+    <t>NAZIV:</t>
+  </si>
+  <si>
+    <t>OPIS:</t>
+  </si>
+  <si>
+    <t>AKTERI:</t>
+  </si>
+  <si>
+    <t>SCENARIJ 6.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,6 +76,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,12 +111,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -120,7 +127,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -131,6 +160,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:C9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A8:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="KORISNIK"/>
+    <tableColumn id="2" name="SBG SISTEM"/>
+    <tableColumn id="3" name="ADMINISTRATOR" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,67 +460,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B3" sqref="B3:E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="C9" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -487,5 +527,9 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>